--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="277">
   <si>
     <t>사이트</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>빅히트</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>Jellyfish</t>
@@ -2902,6 +2905,12 @@
       <c r="F66" t="s">
         <v>213</v>
       </c>
+      <c r="G66" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
@@ -3157,7 +3166,7 @@
         <v>219</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H76" t="s">
         <v>245</v>
@@ -3183,7 +3192,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H77" t="s">
         <v>245</v>
@@ -3261,7 +3270,7 @@
         <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H80" t="s">
         <v>245</v>
@@ -3313,7 +3322,7 @@
         <v>223</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H82" t="s">
         <v>245</v>
@@ -3338,6 +3347,12 @@
       <c r="F83" t="s">
         <v>91</v>
       </c>
+      <c r="G83" t="s">
+        <v>246</v>
+      </c>
+      <c r="H83" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
@@ -3359,7 +3374,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H84" t="s">
         <v>245</v>
@@ -3463,7 +3478,7 @@
         <v>226</v>
       </c>
       <c r="G88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H88" t="s">
         <v>245</v>
@@ -3541,7 +3556,7 @@
         <v>228</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H91" t="s">
         <v>245</v>
@@ -3567,7 +3582,7 @@
         <v>229</v>
       </c>
       <c r="G92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H92" t="s">
         <v>245</v>
@@ -3593,7 +3608,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H93" t="s">
         <v>245</v>
@@ -3619,7 +3634,7 @@
         <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H94" t="s">
         <v>245</v>
@@ -3670,6 +3685,12 @@
       <c r="F96" t="s">
         <v>232</v>
       </c>
+      <c r="G96" t="s">
+        <v>265</v>
+      </c>
+      <c r="H96" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
@@ -3795,7 +3816,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H101" t="s">
         <v>245</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-08</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="277">
   <si>
     <t>사이트</t>
   </si>
@@ -1565,6 +1565,12 @@
       <c r="F14" t="s">
         <v>22</v>
       </c>
+      <c r="G14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>YUE HUA</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>FNC</t>
@@ -2086,7 +2083,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H34" t="s">
         <v>245</v>
@@ -2138,7 +2135,7 @@
         <v>197</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H36" t="s">
         <v>245</v>
@@ -2164,7 +2161,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H37" t="s">
         <v>245</v>
@@ -2346,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H44" t="s">
         <v>245</v>
@@ -2424,7 +2421,7 @@
         <v>202</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H47" t="s">
         <v>245</v>
@@ -2450,7 +2447,7 @@
         <v>203</v>
       </c>
       <c r="G48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H48" t="s">
         <v>245</v>
@@ -2476,7 +2473,7 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H49" t="s">
         <v>245</v>
@@ -2528,7 +2525,7 @@
         <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H51" t="s">
         <v>245</v>
@@ -2606,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H54" t="s">
         <v>245</v>
@@ -2684,7 +2681,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
         <v>245</v>
@@ -2736,10 +2733,10 @@
         <v>208</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2762,7 +2759,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
         <v>245</v>
@@ -2840,10 +2837,10 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2912,7 +2909,7 @@
         <v>213</v>
       </c>
       <c r="G66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" t="s">
         <v>245</v>
@@ -3016,10 +3013,10 @@
         <v>215</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3094,7 +3091,7 @@
         <v>193</v>
       </c>
       <c r="G73" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H73" t="s">
         <v>245</v>
@@ -3172,7 +3169,7 @@
         <v>219</v>
       </c>
       <c r="G76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
         <v>245</v>
@@ -3198,7 +3195,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
         <v>245</v>
@@ -3224,10 +3221,10 @@
         <v>220</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3276,7 +3273,7 @@
         <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H80" t="s">
         <v>245</v>
@@ -3328,7 +3325,7 @@
         <v>223</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
         <v>245</v>
@@ -3380,7 +3377,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H84" t="s">
         <v>245</v>
@@ -3484,7 +3481,7 @@
         <v>226</v>
       </c>
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H88" t="s">
         <v>245</v>
@@ -3510,7 +3507,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" t="s">
         <v>245</v>
@@ -3562,7 +3559,7 @@
         <v>228</v>
       </c>
       <c r="G91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H91" t="s">
         <v>245</v>
@@ -3588,7 +3585,7 @@
         <v>229</v>
       </c>
       <c r="G92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
         <v>245</v>
@@ -3614,7 +3611,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
         <v>245</v>
@@ -3640,7 +3637,7 @@
         <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
         <v>245</v>
@@ -3692,7 +3689,7 @@
         <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
         <v>245</v>
@@ -3822,7 +3819,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H101" t="s">
         <v>245</v>
